--- a/work_items_list_tpl.xlsx
+++ b/work_items_list_tpl.xlsx
@@ -75,7 +75,7 @@
     <t>&lt;Use-case Specification.doc&gt;</t>
   </si>
   <si>
-    <t>Finalize the Vision</t>
+    <t>Revise the Vision</t>
   </si>
   <si>
     <t>Produce Project Plan v1.0</t>
@@ -134,7 +134,7 @@
     <t>Produce fully-dressed Use Cases for UC2.2, UC2.3, UC3.1 and UC3.2</t>
   </si>
   <si>
-    <t>Finalize the plan for Iteration II</t>
+    <t>Finalize (for this iteration) the plan for Iteration II</t>
   </si>
   <si>
     <t>Berfu
@@ -159,7 +159,7 @@
     <t>Deliver Glossary v1.1</t>
   </si>
   <si>
-    <t>Initiate Design Document v1.0</t>
+    <t>Initiate Design Document for UC1.2 and UC2.1 v1.0</t>
   </si>
   <si>
     <t>&lt;Design.doc&gt;</t>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -258,9 +258,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -268,9 +265,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,7 +576,7 @@
       <c r="E3" s="6">
         <v>1.0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="6">
@@ -591,326 +585,326 @@
       <c r="H3" s="6">
         <v>2.0</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1.0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>10.0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1.0</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>0.0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>9.0</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1.0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1.0</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>1.0</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>4.0</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1.0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>9.0</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>1.0</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0.0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>9.0</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1.0</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>4.0</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>1.0</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0.0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4.0</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>1.0</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>4.0</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1.0</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>4.0</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1.0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1.0</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>1.0</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>2.0</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>1.0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>6.0</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>1.0</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <v>0.0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="8">
         <v>5.0</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>1.0</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>3.0</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1.0</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>2.0</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>1.0</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="8">
         <v>20.0</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>2.0</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <v>10.0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="8">
         <v>0.0</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>2.0</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>4.0</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>2.0</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="8">
         <v>2.0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="8">
         <v>0.0</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="20.25" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>1.0</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="8">
         <v>12.0</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>2.0</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <v>6.0</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="8">
         <v>0.0</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -918,231 +912,231 @@
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1.0</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>4.0</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>2.0</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>2.0</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>0.0</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>1.0</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>4.0</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>2.0</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>2.0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0.0</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>1.0</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>2.0</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>2.0</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>1.0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0.0</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>1.0</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>2.0</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>2.0</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>1.0</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>0.0</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>1.0</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>2.0</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>2.0</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1.0</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>0.0</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>1.0</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>2.0</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>2.0</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>1.0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.0</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>1.0</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>3.0</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>2.0</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>6.0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>0.0</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>1.0</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>3.0</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>2.0</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>6.0</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>0.0</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>50</v>
       </c>
     </row>
